--- a/LR3/table_1_87.xlsx
+++ b/LR3/table_1_87.xlsx
@@ -135,9 +135,6 @@
     <t>Раин</t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -175,6 +172,9 @@
   </si>
   <si>
     <t>максимальная сумма к оплате, руб</t>
+  </si>
+  <si>
+    <t>Торощина</t>
   </si>
 </sst>
 </file>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -263,6 +263,9 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -546,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,31 +652,31 @@
         <v>2</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>47</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -3413,8 +3416,8 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>26</v>
+      <c r="B28" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="6"/>
@@ -3520,8 +3523,8 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>27</v>
+      <c r="B29" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="6"/>
@@ -3628,7 +3631,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="6"/>
@@ -3735,7 +3738,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="6"/>
@@ -3842,7 +3845,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="6"/>
@@ -3949,7 +3952,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="6"/>
@@ -4056,7 +4059,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="6"/>
@@ -4163,7 +4166,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="6"/>
@@ -4270,7 +4273,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="6"/>
@@ -4377,7 +4380,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="6"/>
@@ -4484,7 +4487,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="6"/>
@@ -4663,7 +4666,7 @@
     <row r="40" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40">
         <f>SUM(K3:K38)</f>
@@ -4743,7 +4746,7 @@
     <row r="41" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -4823,7 +4826,7 @@
     <row r="42" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -4903,7 +4906,7 @@
     <row r="43" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>
@@ -13151,5 +13154,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_87.xlsx
+++ b/LR3/table_1_87.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
-  <si>
-    <t>87 вариант</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
   </si>
@@ -549,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,8 +565,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
+      <c r="A1" s="3">
+        <v>87</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -646,37 +643,37 @@
     </row>
     <row r="2" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="C2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>45</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>46</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -746,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>70</v>
@@ -849,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <f>C3-0.5</f>
@@ -956,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -1063,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="6"/>
@@ -1170,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="6"/>
@@ -1277,7 +1274,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="6"/>
@@ -1384,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="6"/>
@@ -1491,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="6"/>
@@ -1598,7 +1595,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="6"/>
@@ -1705,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="6"/>
@@ -1812,7 +1809,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="6"/>
@@ -1919,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="6"/>
@@ -2026,7 +2023,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="6"/>
@@ -2133,7 +2130,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="6"/>
@@ -2240,7 +2237,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="6"/>
@@ -2347,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="6"/>
@@ -2454,7 +2451,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="6"/>
@@ -2561,7 +2558,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="6"/>
@@ -2668,7 +2665,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="6"/>
@@ -2775,7 +2772,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="6"/>
@@ -2882,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="6"/>
@@ -2989,7 +2986,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="6"/>
@@ -3096,7 +3093,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="6"/>
@@ -3203,7 +3200,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="6"/>
@@ -3310,7 +3307,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="6"/>
@@ -3417,7 +3414,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="6"/>
@@ -3524,7 +3521,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="6"/>
@@ -3631,7 +3628,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="6"/>
@@ -3738,7 +3735,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="6"/>
@@ -3845,7 +3842,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="6"/>
@@ -3952,7 +3949,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="6"/>
@@ -4059,7 +4056,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="6"/>
@@ -4166,7 +4163,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="6"/>
@@ -4273,7 +4270,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="6"/>
@@ -4380,7 +4377,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="6"/>
@@ -4487,7 +4484,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="6"/>
@@ -4666,7 +4663,7 @@
     <row r="40" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <f>SUM(K3:K38)</f>
@@ -4746,7 +4743,7 @@
     <row r="41" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C41">
         <f>AVERAGE(C3:C38)</f>
@@ -4826,7 +4823,7 @@
     <row r="42" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C42">
         <f>MAX(H3:H38)</f>
@@ -4906,7 +4903,7 @@
     <row r="43" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_87.xlsx
+++ b/LR3/table_1_87.xlsx
@@ -547,7 +547,7 @@
   <dimension ref="A1:BU152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -743,7 +743,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3">
         <v>70</v>
@@ -846,7 +846,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <f>C3-0.5</f>
@@ -953,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -1060,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" si="6"/>
@@ -1167,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="6"/>
@@ -1274,7 +1274,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="6"/>
@@ -1381,7 +1381,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="6"/>
@@ -1488,7 +1488,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="6"/>
@@ -1595,7 +1595,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="6"/>
@@ -1702,7 +1702,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="6"/>
@@ -1809,7 +1809,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="6"/>
@@ -1916,7 +1916,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="6"/>
@@ -2023,7 +2023,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="6"/>
@@ -2130,7 +2130,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="6"/>
@@ -2237,7 +2237,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="6"/>
@@ -2344,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="6"/>
@@ -2451,7 +2451,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="6"/>
@@ -2558,7 +2558,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="6"/>
@@ -2665,7 +2665,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="6"/>
@@ -2772,7 +2772,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="6"/>
@@ -2879,7 +2879,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="6"/>
@@ -2986,7 +2986,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="6"/>
@@ -3093,7 +3093,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="6"/>
@@ -3200,7 +3200,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="6"/>
@@ -3307,7 +3307,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="6"/>
@@ -3413,8 +3413,8 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>50</v>
+      <c r="B28" s="13" t="s">
+        <v>22</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="6"/>
@@ -3521,7 +3521,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="6"/>
@@ -3628,7 +3628,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="5">
         <f t="shared" si="6"/>
@@ -3734,8 +3734,8 @@
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>26</v>
+      <c r="B31" s="16" t="s">
+        <v>50</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="6"/>
@@ -3842,7 +3842,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="6"/>
@@ -3949,7 +3949,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="6"/>
@@ -4056,7 +4056,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="6"/>
@@ -4163,7 +4163,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="6"/>
@@ -4270,7 +4270,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="6"/>
@@ -4377,7 +4377,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="6"/>
@@ -4484,7 +4484,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="6"/>
@@ -13150,6 +13150,9 @@
       <c r="BT152" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="B3:B38">
+    <sortCondition ref="B3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/LR3/table_1_87.xlsx
+++ b/LR3/table_1_87.xlsx
@@ -178,6 +178,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -263,6 +266,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,7 +553,7 @@
   <dimension ref="A1:BU152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -748,8 +754,8 @@
       <c r="C3" s="3">
         <v>70</v>
       </c>
-      <c r="D3" s="3">
-        <f>IF(A3&lt;=32,87*1.1,87*1.1/2)</f>
+      <c r="D3" s="17">
+        <f t="shared" ref="D3:D37" si="0">IF(A3&lt;=32,87*1.1,ROUND(87*1.1/2,1))</f>
         <v>95.7</v>
       </c>
       <c r="E3" s="3">
@@ -852,8 +858,8 @@
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="13">
-        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;=32,87*1.1,87*1.1/2)</f>
+      <c r="D4" s="17">
+        <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
       <c r="E4" s="13">
@@ -959,7 +965,7 @@
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -1066,7 +1072,7 @@
         <f t="shared" si="6"/>
         <v>68.5</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -1173,7 +1179,7 @@
         <f t="shared" si="6"/>
         <v>68</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -1280,7 +1286,7 @@
         <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -1387,7 +1393,7 @@
         <f t="shared" si="6"/>
         <v>67</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -1494,7 +1500,7 @@
         <f t="shared" si="6"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -1601,7 +1607,7 @@
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -1708,7 +1714,7 @@
         <f t="shared" si="6"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -1815,7 +1821,7 @@
         <f t="shared" si="6"/>
         <v>65</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -1922,7 +1928,7 @@
         <f t="shared" si="6"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -2029,7 +2035,7 @@
         <f t="shared" si="6"/>
         <v>64</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -2136,7 +2142,7 @@
         <f t="shared" si="6"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -2243,7 +2249,7 @@
         <f t="shared" si="6"/>
         <v>63</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -2350,7 +2356,7 @@
         <f t="shared" si="6"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -2457,7 +2463,7 @@
         <f t="shared" si="6"/>
         <v>62</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -2564,7 +2570,7 @@
         <f t="shared" si="6"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -2671,7 +2677,7 @@
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -2778,7 +2784,7 @@
         <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -2885,7 +2891,7 @@
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -2992,7 +2998,7 @@
         <f t="shared" si="6"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -3099,7 +3105,7 @@
         <f t="shared" si="6"/>
         <v>59</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -3206,7 +3212,7 @@
         <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -3313,7 +3319,7 @@
         <f t="shared" si="6"/>
         <v>58</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -3420,7 +3426,7 @@
         <f t="shared" si="6"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -3527,7 +3533,7 @@
         <f t="shared" si="6"/>
         <v>57</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -3634,7 +3640,7 @@
         <f t="shared" si="6"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -3741,7 +3747,7 @@
         <f t="shared" si="6"/>
         <v>56</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -3848,7 +3854,7 @@
         <f t="shared" si="6"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -3955,7 +3961,7 @@
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -4062,7 +4068,7 @@
         <f t="shared" si="6"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="17">
         <f t="shared" si="0"/>
         <v>95.7</v>
       </c>
@@ -4169,13 +4175,13 @@
         <f t="shared" si="6"/>
         <v>54</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="17">
         <f t="shared" si="0"/>
-        <v>47.85</v>
+        <v>47.9</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="1"/>
-        <v>2583.9</v>
+        <v>2586.6</v>
       </c>
       <c r="F35" s="15">
         <f t="shared" si="7"/>
@@ -4199,7 +4205,7 @@
       </c>
       <c r="K35" s="13">
         <f t="shared" si="4"/>
-        <v>2823.9</v>
+        <v>2826.6</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -4276,13 +4282,13 @@
         <f t="shared" si="6"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="17">
         <f t="shared" si="0"/>
-        <v>47.85</v>
+        <v>47.9</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="1"/>
-        <v>2559.9749999999999</v>
+        <v>2562.65</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="7"/>
@@ -4306,7 +4312,7 @@
       </c>
       <c r="K36" s="13">
         <f t="shared" si="4"/>
-        <v>2809.9749999999999</v>
+        <v>2812.65</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -4383,13 +4389,13 @@
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="17">
         <f t="shared" si="0"/>
-        <v>47.85</v>
+        <v>47.9</v>
       </c>
       <c r="E37" s="13">
         <f t="shared" si="1"/>
-        <v>2536.0500000000002</v>
+        <v>2538.6999999999998</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="7"/>
@@ -4413,7 +4419,7 @@
       </c>
       <c r="K37" s="13">
         <f t="shared" si="4"/>
-        <v>2796.05</v>
+        <v>2798.7</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -4490,13 +4496,13 @@
         <f t="shared" si="6"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="13">
-        <f t="shared" si="0"/>
-        <v>47.85</v>
+      <c r="D38" s="17">
+        <f t="shared" ref="D35:D38" si="10">IF(A38&lt;=32,87*1.1,ROUND(87*1.1/2,1))</f>
+        <v>47.9</v>
       </c>
       <c r="E38" s="13">
         <f t="shared" si="1"/>
-        <v>2512.125</v>
+        <v>2514.75</v>
       </c>
       <c r="F38" s="15">
         <f t="shared" si="7"/>
@@ -4520,7 +4526,7 @@
       </c>
       <c r="K38" s="13">
         <f t="shared" si="4"/>
-        <v>2782.125</v>
+        <v>2784.75</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -4667,7 +4673,7 @@
       </c>
       <c r="C40">
         <f>SUM(K3:K38)</f>
-        <v>204606.44999999998</v>
+        <v>204617.1</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>

--- a/LR3/table_1_87.xlsx
+++ b/LR3/table_1_87.xlsx
@@ -179,7 +179,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -267,9 +267,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -553,7 +554,7 @@
   <dimension ref="A1:BU152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,7 +756,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="17">
-        <f t="shared" ref="D3:D37" si="0">IF(A3&lt;=32,87*1.1,ROUND(87*1.1/2,1))</f>
+        <f>IF(A3&lt;=32,$A$1*1.1,$A$1*1.1/2)</f>
         <v>95.7</v>
       </c>
       <c r="E3" s="3">
@@ -859,7 +860,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="17">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;=32,$A$1*1.1,$A$1*1.1/2)</f>
         <v>95.7</v>
       </c>
       <c r="E4" s="13">
@@ -4177,11 +4178,11 @@
       </c>
       <c r="D35" s="17">
         <f t="shared" si="0"/>
-        <v>47.9</v>
+        <v>47.85</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="1"/>
-        <v>2586.6</v>
+        <v>2583.9</v>
       </c>
       <c r="F35" s="15">
         <f t="shared" si="7"/>
@@ -4205,7 +4206,7 @@
       </c>
       <c r="K35" s="13">
         <f t="shared" si="4"/>
-        <v>2826.6</v>
+        <v>2823.9</v>
       </c>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
@@ -4284,11 +4285,11 @@
       </c>
       <c r="D36" s="17">
         <f t="shared" si="0"/>
-        <v>47.9</v>
+        <v>47.85</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="1"/>
-        <v>2562.65</v>
+        <v>2559.9749999999999</v>
       </c>
       <c r="F36" s="15">
         <f t="shared" si="7"/>
@@ -4312,7 +4313,7 @@
       </c>
       <c r="K36" s="13">
         <f t="shared" si="4"/>
-        <v>2812.65</v>
+        <v>2809.9749999999999</v>
       </c>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
@@ -4391,11 +4392,11 @@
       </c>
       <c r="D37" s="17">
         <f t="shared" si="0"/>
-        <v>47.9</v>
+        <v>47.85</v>
       </c>
       <c r="E37" s="13">
         <f t="shared" si="1"/>
-        <v>2538.6999999999998</v>
+        <v>2536.0500000000002</v>
       </c>
       <c r="F37" s="15">
         <f t="shared" si="7"/>
@@ -4419,7 +4420,7 @@
       </c>
       <c r="K37" s="13">
         <f t="shared" si="4"/>
-        <v>2798.7</v>
+        <v>2796.05</v>
       </c>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -4497,12 +4498,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="17">
-        <f t="shared" ref="D35:D38" si="10">IF(A38&lt;=32,87*1.1,ROUND(87*1.1/2,1))</f>
-        <v>47.9</v>
+        <f t="shared" si="0"/>
+        <v>47.85</v>
       </c>
       <c r="E38" s="13">
         <f t="shared" si="1"/>
-        <v>2514.75</v>
+        <v>2512.125</v>
       </c>
       <c r="F38" s="15">
         <f t="shared" si="7"/>
@@ -4526,7 +4527,7 @@
       </c>
       <c r="K38" s="13">
         <f t="shared" si="4"/>
-        <v>2784.75</v>
+        <v>2782.125</v>
       </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -4671,9 +4672,9 @@
       <c r="B40" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="18">
         <f>SUM(K3:K38)</f>
-        <v>204617.1</v>
+        <v>204606.44999999998</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>

--- a/LR3/table_1_87.xlsx
+++ b/LR3/table_1_87.xlsx
@@ -135,21 +135,6 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Сумма, руб</t>
-  </si>
-  <si>
-    <t>Срок оплаты, день</t>
-  </si>
-  <si>
-    <t>Дата оплаты, день</t>
-  </si>
-  <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
-    <t>Пени за день</t>
-  </si>
-  <si>
     <t>Штраф, руб</t>
   </si>
   <si>
@@ -171,7 +156,22 @@
     <t>Торощина</t>
   </si>
   <si>
-    <t>Тариф, руб./кв.м.</t>
+    <t>Тариф</t>
+  </si>
+  <si>
+    <t>Сумма,руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день</t>
+  </si>
+  <si>
+    <t>Просрочка,дней</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Срок оплаты</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection sqref="A1:L44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +540,8 @@
     <col min="1" max="1" width="15.88671875" customWidth="1"/>
     <col min="2" max="2" width="35.44140625" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
     <col min="6" max="6" width="23.21875" customWidth="1"/>
     <col min="7" max="7" width="32.21875" customWidth="1"/>
     <col min="8" max="8" width="12.77734375" customWidth="1"/>
@@ -637,28 +638,28 @@
         <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="2"/>
@@ -3720,7 +3721,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="6"/>
@@ -4648,7 +4649,7 @@
     <row r="40" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C40" s="9">
         <f>SUM(K3:K38)</f>
@@ -4728,7 +4729,7 @@
     <row r="41" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C41" s="10">
         <f>AVERAGE(C3:C38)</f>
@@ -4808,7 +4809,7 @@
     <row r="42" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C42" s="10">
         <f>MAX(H3:H38)</f>
@@ -4888,7 +4889,7 @@
     <row r="43" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C43" s="10">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_87.xlsx
+++ b/LR3/table_1_87.xlsx
@@ -135,34 +135,7 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Штраф, руб</t>
-  </si>
-  <si>
-    <t>Итого, руб</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> общая сумма графы “Итого”, руб</t>
-  </si>
-  <si>
-    <t>средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>максимальная сумма к оплате, руб</t>
-  </si>
-  <si>
     <t>Торощина</t>
-  </si>
-  <si>
-    <t>Тариф</t>
-  </si>
-  <si>
-    <t>Сумма,руб./кв.м.</t>
-  </si>
-  <si>
-    <t>Пени за 1 день</t>
   </si>
   <si>
     <t>Просрочка,дней</t>
@@ -172,6 +145,33 @@
   </si>
   <si>
     <t>Срок оплаты</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Пени за 1 день,руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
 </sst>
 </file>
@@ -531,21 +531,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="35.44140625" customWidth="1"/>
-    <col min="3" max="3" width="33.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.5546875" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1"/>
-    <col min="7" max="7" width="32.21875" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="24.88671875" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
   </cols>
@@ -638,28 +638,28 @@
         <v>37</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="2"/>
@@ -3721,7 +3721,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="6"/>
@@ -4649,7 +4649,7 @@
     <row r="40" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C40" s="9">
         <f>SUM(K3:K38)</f>
@@ -4729,7 +4729,7 @@
     <row r="41" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C41" s="10">
         <f>AVERAGE(C3:C38)</f>
@@ -4809,7 +4809,7 @@
     <row r="42" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C42" s="10">
         <f>MAX(H3:H38)</f>
@@ -4889,7 +4889,7 @@
     <row r="43" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C43" s="10">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_87.xlsx
+++ b/LR3/table_1_87.xlsx
@@ -22,9 +22,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>№ квартиры</t>
-  </si>
-  <si>
-    <t>Фамилия квартиросъемщика</t>
   </si>
   <si>
     <t>Аллаяров</t>
@@ -138,9 +135,6 @@
     <t>Торощина</t>
   </si>
   <si>
-    <t>Просрочка,дней</t>
-  </si>
-  <si>
     <t>Дата оплаты</t>
   </si>
   <si>
@@ -151,9 +145,6 @@
   </si>
   <si>
     <t>Сумма, руб.</t>
-  </si>
-  <si>
-    <t>Пени за 1 день,руб.</t>
   </si>
   <si>
     <t>Штраф, руб.</t>
@@ -172,6 +163,15 @@
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,34 +632,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="K2" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="2"/>
@@ -729,7 +729,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="C3" s="5">
         <v>70</v>
@@ -939,7 +939,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
@@ -1153,7 +1153,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="6"/>
@@ -1260,7 +1260,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="6"/>
@@ -1367,7 +1367,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="6"/>
@@ -1474,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="6"/>
@@ -1581,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="6"/>
@@ -1688,7 +1688,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" si="6"/>
@@ -1795,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="6"/>
@@ -1902,7 +1902,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="5">
         <f t="shared" si="6"/>
@@ -2009,7 +2009,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C15" s="5">
         <f t="shared" si="6"/>
@@ -2116,7 +2116,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="6"/>
@@ -2223,7 +2223,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C17" s="5">
         <f t="shared" si="6"/>
@@ -2330,7 +2330,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="5">
         <f t="shared" si="6"/>
@@ -2437,7 +2437,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C19" s="5">
         <f t="shared" si="6"/>
@@ -2544,7 +2544,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C20" s="5">
         <f t="shared" si="6"/>
@@ -2651,7 +2651,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="6"/>
@@ -2758,7 +2758,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="6"/>
@@ -2865,7 +2865,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="5">
         <f t="shared" si="6"/>
@@ -2972,7 +2972,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5">
         <f t="shared" si="6"/>
@@ -3079,7 +3079,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C25" s="5">
         <f t="shared" si="6"/>
@@ -3186,7 +3186,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C26" s="5">
         <f t="shared" si="6"/>
@@ -3293,7 +3293,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C27" s="5">
         <f t="shared" si="6"/>
@@ -3400,7 +3400,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C28" s="5">
         <f t="shared" si="6"/>
@@ -3507,7 +3507,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C29" s="5">
         <f t="shared" si="6"/>
@@ -3721,7 +3721,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C31" s="5">
         <f t="shared" si="6"/>
@@ -3828,7 +3828,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C32" s="5">
         <f t="shared" si="6"/>
@@ -3935,7 +3935,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C33" s="5">
         <f t="shared" si="6"/>
@@ -4042,7 +4042,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C34" s="5">
         <f t="shared" si="6"/>
@@ -4149,7 +4149,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C35" s="5">
         <f t="shared" si="6"/>
@@ -4256,7 +4256,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C36" s="5">
         <f t="shared" si="6"/>
@@ -4363,7 +4363,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C37" s="5">
         <f t="shared" si="6"/>
@@ -4470,7 +4470,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C38" s="5">
         <f t="shared" si="6"/>
@@ -4649,7 +4649,7 @@
     <row r="40" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C40" s="9">
         <f>SUM(K3:K38)</f>
@@ -4729,7 +4729,7 @@
     <row r="41" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
       <c r="B41" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C41" s="10">
         <f>AVERAGE(C3:C38)</f>
@@ -4809,7 +4809,7 @@
     <row r="42" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
       <c r="B42" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C42" s="10">
         <f>MAX(H3:H38)</f>
@@ -4889,7 +4889,7 @@
     <row r="43" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
       <c r="B43" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C43" s="10">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_87.xlsx
+++ b/LR3/table_1_87.xlsx
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,7 +735,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="8">
-        <f>IF(A3&lt;=32,$A$1*1.1,$A$1*1.1/2)</f>
+        <f>A1*1.1</f>
         <v>95.7</v>
       </c>
       <c r="E3" s="5">
@@ -749,7 +749,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="5">
-        <f>IF(G3&lt;F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="5">
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="5">
-        <f>J3+E3</f>
+        <f>E3+J3</f>
         <v>6699</v>
       </c>
       <c r="L3" s="5"/>
@@ -839,11 +839,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;=32,$A$1*1.1,$A$1*1.1/2)</f>
+        <f>D3</f>
         <v>95.7</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>6651.1500000000005</v>
       </c>
       <c r="F4" s="7">
@@ -855,7 +855,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&lt;F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="5">
@@ -863,11 +863,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
         <v>6651.1500000000005</v>
       </c>
       <c r="L4" s="5"/>
@@ -935,22 +935,22 @@
     </row>
     <row r="5" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
-        <f t="shared" ref="A5:A38" si="5">A4+1</f>
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ref="C5:C38" si="6">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="8">
+        <f t="shared" ref="D5:D36" si="6">D4</f>
+        <v>95.7</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="1"/>
         <v>6603.3</v>
       </c>
       <c r="F5" s="7">
@@ -962,7 +962,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="5">
@@ -970,11 +970,11 @@
         <v>10</v>
       </c>
       <c r="J5" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="5">
-        <f t="shared" si="4"/>
         <v>6603.3</v>
       </c>
       <c r="L5" s="5"/>
@@ -1042,22 +1042,22 @@
     </row>
     <row r="6" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="5">
+        <f t="shared" si="5"/>
+        <v>68.5</v>
+      </c>
+      <c r="D6" s="8">
         <f t="shared" si="6"/>
-        <v>68.5</v>
-      </c>
-      <c r="D6" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
         <v>6555.45</v>
       </c>
       <c r="F6" s="7">
@@ -1069,7 +1069,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="5">
@@ -1077,11 +1077,11 @@
         <v>10</v>
       </c>
       <c r="J6" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="4"/>
         <v>6555.45</v>
       </c>
       <c r="L6" s="5"/>
@@ -1149,22 +1149,22 @@
     </row>
     <row r="7" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="5">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="D7" s="8">
         <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="D7" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="1"/>
         <v>6507.6</v>
       </c>
       <c r="F7" s="7">
@@ -1176,7 +1176,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="5">
@@ -1184,11 +1184,11 @@
         <v>10</v>
       </c>
       <c r="J7" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <f t="shared" si="4"/>
         <v>6507.6</v>
       </c>
       <c r="L7" s="5"/>
@@ -1256,22 +1256,22 @@
     </row>
     <row r="8" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5">
+        <f t="shared" si="5"/>
+        <v>67.5</v>
+      </c>
+      <c r="D8" s="8">
         <f t="shared" si="6"/>
-        <v>67.5</v>
-      </c>
-      <c r="D8" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="1"/>
         <v>6459.75</v>
       </c>
       <c r="F8" s="7">
@@ -1283,7 +1283,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="5">
@@ -1291,11 +1291,11 @@
         <v>10</v>
       </c>
       <c r="J8" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <f t="shared" si="4"/>
         <v>6459.75</v>
       </c>
       <c r="L8" s="5"/>
@@ -1363,22 +1363,22 @@
     </row>
     <row r="9" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="D9" s="8">
         <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="D9" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
         <v>6411.9000000000005</v>
       </c>
       <c r="F9" s="7">
@@ -1390,7 +1390,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="5">
@@ -1398,11 +1398,11 @@
         <v>10</v>
       </c>
       <c r="J9" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <f t="shared" si="4"/>
         <v>6411.9000000000005</v>
       </c>
       <c r="L9" s="5"/>
@@ -1470,22 +1470,22 @@
     </row>
     <row r="10" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="5">
+        <f t="shared" si="5"/>
+        <v>66.5</v>
+      </c>
+      <c r="D10" s="8">
         <f t="shared" si="6"/>
-        <v>66.5</v>
-      </c>
-      <c r="D10" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
         <v>6364.05</v>
       </c>
       <c r="F10" s="7">
@@ -1497,7 +1497,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="5">
@@ -1505,11 +1505,11 @@
         <v>10</v>
       </c>
       <c r="J10" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <f t="shared" si="4"/>
         <v>6364.05</v>
       </c>
       <c r="L10" s="5"/>
@@ -1577,22 +1577,22 @@
     </row>
     <row r="11" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="5">
+        <f t="shared" si="5"/>
+        <v>66</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="D11" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="1"/>
         <v>6316.2</v>
       </c>
       <c r="F11" s="7">
@@ -1604,7 +1604,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="5">
@@ -1612,11 +1612,11 @@
         <v>10</v>
       </c>
       <c r="J11" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <f t="shared" si="4"/>
         <v>6316.2</v>
       </c>
       <c r="L11" s="5"/>
@@ -1684,22 +1684,22 @@
     </row>
     <row r="12" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="5">
+        <f t="shared" si="5"/>
+        <v>65.5</v>
+      </c>
+      <c r="D12" s="8">
         <f t="shared" si="6"/>
-        <v>65.5</v>
-      </c>
-      <c r="D12" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
         <v>6268.35</v>
       </c>
       <c r="F12" s="7">
@@ -1711,7 +1711,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="5">
@@ -1719,11 +1719,11 @@
         <v>10</v>
       </c>
       <c r="J12" s="5">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="5">
-        <f t="shared" si="4"/>
         <v>6278.35</v>
       </c>
       <c r="L12" s="5"/>
@@ -1791,22 +1791,22 @@
     </row>
     <row r="13" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="5">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="D13" s="8">
         <f t="shared" si="6"/>
-        <v>65</v>
-      </c>
-      <c r="D13" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="1"/>
         <v>6220.5</v>
       </c>
       <c r="F13" s="7">
@@ -1818,7 +1818,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="5">
@@ -1826,11 +1826,11 @@
         <v>10</v>
       </c>
       <c r="J13" s="5">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="K13" s="5">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="K13" s="5">
-        <f t="shared" si="4"/>
         <v>6240.5</v>
       </c>
       <c r="L13" s="5"/>
@@ -1898,22 +1898,22 @@
     </row>
     <row r="14" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="5">
+        <f t="shared" si="5"/>
+        <v>64.5</v>
+      </c>
+      <c r="D14" s="8">
         <f t="shared" si="6"/>
-        <v>64.5</v>
-      </c>
-      <c r="D14" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
         <v>6172.6500000000005</v>
       </c>
       <c r="F14" s="7">
@@ -1925,7 +1925,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="5">
@@ -1933,11 +1933,11 @@
         <v>10</v>
       </c>
       <c r="J14" s="5">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="K14" s="5">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="K14" s="5">
-        <f t="shared" si="4"/>
         <v>6202.6500000000005</v>
       </c>
       <c r="L14" s="5"/>
@@ -2005,22 +2005,22 @@
     </row>
     <row r="15" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="5">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+      <c r="D15" s="8">
         <f t="shared" si="6"/>
-        <v>64</v>
-      </c>
-      <c r="D15" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="1"/>
         <v>6124.8</v>
       </c>
       <c r="F15" s="7">
@@ -2032,7 +2032,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="5">
@@ -2040,11 +2040,11 @@
         <v>10</v>
       </c>
       <c r="J15" s="5">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="K15" s="5">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="K15" s="5">
-        <f t="shared" si="4"/>
         <v>6164.8</v>
       </c>
       <c r="L15" s="5"/>
@@ -2112,22 +2112,22 @@
     </row>
     <row r="16" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="5">
+        <f t="shared" si="5"/>
+        <v>63.5</v>
+      </c>
+      <c r="D16" s="8">
         <f t="shared" si="6"/>
-        <v>63.5</v>
-      </c>
-      <c r="D16" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="1"/>
         <v>6076.95</v>
       </c>
       <c r="F16" s="7">
@@ -2139,7 +2139,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="5">
@@ -2147,11 +2147,11 @@
         <v>10</v>
       </c>
       <c r="J16" s="5">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="K16" s="5">
         <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="K16" s="5">
-        <f t="shared" si="4"/>
         <v>6126.95</v>
       </c>
       <c r="L16" s="5"/>
@@ -2219,22 +2219,22 @@
     </row>
     <row r="17" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="5">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="D17" s="8">
         <f t="shared" si="6"/>
-        <v>63</v>
-      </c>
-      <c r="D17" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="1"/>
         <v>6029.1</v>
       </c>
       <c r="F17" s="7">
@@ -2246,7 +2246,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="5">
@@ -2254,11 +2254,11 @@
         <v>10</v>
       </c>
       <c r="J17" s="5">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="K17" s="5">
         <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="K17" s="5">
-        <f t="shared" si="4"/>
         <v>6089.1</v>
       </c>
       <c r="L17" s="5"/>
@@ -2326,22 +2326,22 @@
     </row>
     <row r="18" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="5">
+        <f t="shared" si="5"/>
+        <v>62.5</v>
+      </c>
+      <c r="D18" s="8">
         <f t="shared" si="6"/>
-        <v>62.5</v>
-      </c>
-      <c r="D18" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="1"/>
         <v>5981.25</v>
       </c>
       <c r="F18" s="7">
@@ -2353,7 +2353,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="5">
@@ -2361,11 +2361,11 @@
         <v>10</v>
       </c>
       <c r="J18" s="5">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="K18" s="5">
         <f t="shared" si="3"/>
-        <v>70</v>
-      </c>
-      <c r="K18" s="5">
-        <f t="shared" si="4"/>
         <v>6051.25</v>
       </c>
       <c r="L18" s="5"/>
@@ -2433,22 +2433,22 @@
     </row>
     <row r="19" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="5">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+      <c r="D19" s="8">
         <f t="shared" si="6"/>
-        <v>62</v>
-      </c>
-      <c r="D19" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="1"/>
         <v>5933.4000000000005</v>
       </c>
       <c r="F19" s="7">
@@ -2460,7 +2460,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="5">
@@ -2468,11 +2468,11 @@
         <v>10</v>
       </c>
       <c r="J19" s="5">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="K19" s="5">
         <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" si="4"/>
         <v>6013.4000000000005</v>
       </c>
       <c r="L19" s="5"/>
@@ -2540,22 +2540,22 @@
     </row>
     <row r="20" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="5">
+        <f t="shared" si="5"/>
+        <v>61.5</v>
+      </c>
+      <c r="D20" s="8">
         <f t="shared" si="6"/>
-        <v>61.5</v>
-      </c>
-      <c r="D20" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E20" s="5">
-        <f t="shared" si="1"/>
         <v>5885.55</v>
       </c>
       <c r="F20" s="7">
@@ -2567,7 +2567,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="5">
@@ -2575,11 +2575,11 @@
         <v>10</v>
       </c>
       <c r="J20" s="5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="K20" s="5">
         <f t="shared" si="3"/>
-        <v>90</v>
-      </c>
-      <c r="K20" s="5">
-        <f t="shared" si="4"/>
         <v>5975.55</v>
       </c>
       <c r="L20" s="5"/>
@@ -2647,22 +2647,22 @@
     </row>
     <row r="21" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="5">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+      <c r="D21" s="8">
         <f t="shared" si="6"/>
-        <v>61</v>
-      </c>
-      <c r="D21" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E21" s="5">
-        <f t="shared" si="1"/>
         <v>5837.7</v>
       </c>
       <c r="F21" s="7">
@@ -2674,7 +2674,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="5">
@@ -2682,11 +2682,11 @@
         <v>10</v>
       </c>
       <c r="J21" s="5">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="K21" s="5">
         <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="K21" s="5">
-        <f t="shared" si="4"/>
         <v>5937.7</v>
       </c>
       <c r="L21" s="5"/>
@@ -2754,22 +2754,22 @@
     </row>
     <row r="22" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="5">
+        <f t="shared" si="5"/>
+        <v>60.5</v>
+      </c>
+      <c r="D22" s="8">
         <f t="shared" si="6"/>
-        <v>60.5</v>
-      </c>
-      <c r="D22" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="1"/>
         <v>5789.85</v>
       </c>
       <c r="F22" s="7">
@@ -2781,7 +2781,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="5">
@@ -2789,11 +2789,11 @@
         <v>10</v>
       </c>
       <c r="J22" s="5">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="K22" s="5">
         <f t="shared" si="3"/>
-        <v>110</v>
-      </c>
-      <c r="K22" s="5">
-        <f t="shared" si="4"/>
         <v>5899.85</v>
       </c>
       <c r="L22" s="5"/>
@@ -2861,22 +2861,22 @@
     </row>
     <row r="23" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="5">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="D23" s="8">
         <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="D23" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E23" s="5">
-        <f t="shared" si="1"/>
         <v>5742</v>
       </c>
       <c r="F23" s="7">
@@ -2888,7 +2888,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="5">
@@ -2896,11 +2896,11 @@
         <v>10</v>
       </c>
       <c r="J23" s="5">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="K23" s="5">
         <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="K23" s="5">
-        <f t="shared" si="4"/>
         <v>5862</v>
       </c>
       <c r="L23" s="5"/>
@@ -2968,22 +2968,22 @@
     </row>
     <row r="24" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="5">
+        <f t="shared" si="5"/>
+        <v>59.5</v>
+      </c>
+      <c r="D24" s="8">
         <f t="shared" si="6"/>
-        <v>59.5</v>
-      </c>
-      <c r="D24" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E24" s="5">
-        <f t="shared" si="1"/>
         <v>5694.1500000000005</v>
       </c>
       <c r="F24" s="7">
@@ -2995,7 +2995,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="5">
@@ -3003,11 +3003,11 @@
         <v>10</v>
       </c>
       <c r="J24" s="5">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="K24" s="5">
         <f t="shared" si="3"/>
-        <v>130</v>
-      </c>
-      <c r="K24" s="5">
-        <f t="shared" si="4"/>
         <v>5824.1500000000005</v>
       </c>
       <c r="L24" s="5"/>
@@ -3075,22 +3075,22 @@
     </row>
     <row r="25" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="5">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="D25" s="8">
         <f t="shared" si="6"/>
-        <v>59</v>
-      </c>
-      <c r="D25" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E25" s="5">
-        <f t="shared" si="1"/>
         <v>5646.3</v>
       </c>
       <c r="F25" s="7">
@@ -3102,7 +3102,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="5">
@@ -3110,11 +3110,11 @@
         <v>10</v>
       </c>
       <c r="J25" s="5">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="K25" s="5">
         <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="K25" s="5">
-        <f t="shared" si="4"/>
         <v>5786.3</v>
       </c>
       <c r="L25" s="5"/>
@@ -3182,22 +3182,22 @@
     </row>
     <row r="26" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="5">
+        <f t="shared" si="5"/>
+        <v>58.5</v>
+      </c>
+      <c r="D26" s="8">
         <f t="shared" si="6"/>
-        <v>58.5</v>
-      </c>
-      <c r="D26" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E26" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E26" s="5">
-        <f t="shared" si="1"/>
         <v>5598.45</v>
       </c>
       <c r="F26" s="7">
@@ -3209,7 +3209,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="5">
@@ -3217,11 +3217,11 @@
         <v>10</v>
       </c>
       <c r="J26" s="5">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="K26" s="5">
         <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="K26" s="5">
-        <f t="shared" si="4"/>
         <v>5748.45</v>
       </c>
       <c r="L26" s="5"/>
@@ -3289,22 +3289,22 @@
     </row>
     <row r="27" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="5">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+      <c r="D27" s="8">
         <f t="shared" si="6"/>
-        <v>58</v>
-      </c>
-      <c r="D27" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E27" s="5">
-        <f t="shared" si="1"/>
         <v>5550.6</v>
       </c>
       <c r="F27" s="7">
@@ -3316,7 +3316,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="5">
@@ -3324,11 +3324,11 @@
         <v>10</v>
       </c>
       <c r="J27" s="5">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="K27" s="5">
         <f t="shared" si="3"/>
-        <v>160</v>
-      </c>
-      <c r="K27" s="5">
-        <f t="shared" si="4"/>
         <v>5710.6</v>
       </c>
       <c r="L27" s="5"/>
@@ -3396,22 +3396,22 @@
     </row>
     <row r="28" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C28" s="5">
+        <f t="shared" si="5"/>
+        <v>57.5</v>
+      </c>
+      <c r="D28" s="8">
         <f t="shared" si="6"/>
-        <v>57.5</v>
-      </c>
-      <c r="D28" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E28" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E28" s="5">
-        <f t="shared" si="1"/>
         <v>5502.75</v>
       </c>
       <c r="F28" s="7">
@@ -3423,7 +3423,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="5">
@@ -3431,11 +3431,11 @@
         <v>10</v>
       </c>
       <c r="J28" s="5">
+        <f t="shared" si="2"/>
+        <v>170</v>
+      </c>
+      <c r="K28" s="5">
         <f t="shared" si="3"/>
-        <v>170</v>
-      </c>
-      <c r="K28" s="5">
-        <f t="shared" si="4"/>
         <v>5672.75</v>
       </c>
       <c r="L28" s="5"/>
@@ -3503,22 +3503,22 @@
     </row>
     <row r="29" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C29" s="5">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+      <c r="D29" s="8">
         <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="D29" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E29" s="5">
-        <f t="shared" si="1"/>
         <v>5454.9000000000005</v>
       </c>
       <c r="F29" s="7">
@@ -3530,7 +3530,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="5">
@@ -3538,11 +3538,11 @@
         <v>10</v>
       </c>
       <c r="J29" s="5">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="K29" s="5">
         <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="K29" s="5">
-        <f t="shared" si="4"/>
         <v>5634.9000000000005</v>
       </c>
       <c r="L29" s="5"/>
@@ -3610,22 +3610,22 @@
     </row>
     <row r="30" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="5">
+        <f t="shared" si="5"/>
+        <v>56.5</v>
+      </c>
+      <c r="D30" s="8">
         <f t="shared" si="6"/>
-        <v>56.5</v>
-      </c>
-      <c r="D30" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E30" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E30" s="5">
-        <f t="shared" si="1"/>
         <v>5407.05</v>
       </c>
       <c r="F30" s="7">
@@ -3637,7 +3637,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="5">
@@ -3645,11 +3645,11 @@
         <v>10</v>
       </c>
       <c r="J30" s="5">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="K30" s="5">
         <f t="shared" si="3"/>
-        <v>190</v>
-      </c>
-      <c r="K30" s="5">
-        <f t="shared" si="4"/>
         <v>5597.05</v>
       </c>
       <c r="L30" s="5"/>
@@ -3717,22 +3717,22 @@
     </row>
     <row r="31" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="5">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+      <c r="D31" s="8">
         <f t="shared" si="6"/>
-        <v>56</v>
-      </c>
-      <c r="D31" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E31" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E31" s="5">
-        <f t="shared" si="1"/>
         <v>5359.2</v>
       </c>
       <c r="F31" s="7">
@@ -3744,7 +3744,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="5">
@@ -3752,11 +3752,11 @@
         <v>10</v>
       </c>
       <c r="J31" s="5">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="K31" s="5">
         <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="K31" s="5">
-        <f t="shared" si="4"/>
         <v>5559.2</v>
       </c>
       <c r="L31" s="5"/>
@@ -3824,22 +3824,22 @@
     </row>
     <row r="32" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C32" s="5">
+        <f t="shared" si="5"/>
+        <v>55.5</v>
+      </c>
+      <c r="D32" s="8">
         <f t="shared" si="6"/>
-        <v>55.5</v>
-      </c>
-      <c r="D32" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E32" s="5">
-        <f t="shared" si="1"/>
         <v>5311.35</v>
       </c>
       <c r="F32" s="7">
@@ -3851,7 +3851,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="5">
@@ -3859,11 +3859,11 @@
         <v>10</v>
       </c>
       <c r="J32" s="5">
+        <f t="shared" si="2"/>
+        <v>210</v>
+      </c>
+      <c r="K32" s="5">
         <f t="shared" si="3"/>
-        <v>210</v>
-      </c>
-      <c r="K32" s="5">
-        <f t="shared" si="4"/>
         <v>5521.35</v>
       </c>
       <c r="L32" s="5"/>
@@ -3931,22 +3931,22 @@
     </row>
     <row r="33" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="5">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+      <c r="D33" s="8">
         <f t="shared" si="6"/>
-        <v>55</v>
-      </c>
-      <c r="D33" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E33" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" si="1"/>
         <v>5263.5</v>
       </c>
       <c r="F33" s="7">
@@ -3958,7 +3958,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="5">
@@ -3966,11 +3966,11 @@
         <v>10</v>
       </c>
       <c r="J33" s="5">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+      <c r="K33" s="5">
         <f t="shared" si="3"/>
-        <v>220</v>
-      </c>
-      <c r="K33" s="5">
-        <f t="shared" si="4"/>
         <v>5483.5</v>
       </c>
       <c r="L33" s="5"/>
@@ -4038,22 +4038,22 @@
     </row>
     <row r="34" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="5">
+        <f t="shared" si="5"/>
+        <v>54.5</v>
+      </c>
+      <c r="D34" s="8">
         <f t="shared" si="6"/>
-        <v>54.5</v>
-      </c>
-      <c r="D34" s="8">
+        <v>95.7</v>
+      </c>
+      <c r="E34" s="5">
         <f t="shared" si="0"/>
-        <v>95.7</v>
-      </c>
-      <c r="E34" s="5">
-        <f t="shared" si="1"/>
         <v>5215.6500000000005</v>
       </c>
       <c r="F34" s="7">
@@ -4065,7 +4065,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="5">
@@ -4073,11 +4073,11 @@
         <v>10</v>
       </c>
       <c r="J34" s="5">
+        <f t="shared" si="2"/>
+        <v>230</v>
+      </c>
+      <c r="K34" s="5">
         <f t="shared" si="3"/>
-        <v>230</v>
-      </c>
-      <c r="K34" s="5">
-        <f t="shared" si="4"/>
         <v>5445.6500000000005</v>
       </c>
       <c r="L34" s="5"/>
@@ -4145,22 +4145,22 @@
     </row>
     <row r="35" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="8">
+        <f>D3/2</f>
+        <v>47.85</v>
+      </c>
+      <c r="E35" s="5">
         <f t="shared" si="0"/>
-        <v>47.85</v>
-      </c>
-      <c r="E35" s="5">
-        <f t="shared" si="1"/>
         <v>2583.9</v>
       </c>
       <c r="F35" s="7">
@@ -4172,7 +4172,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="5">
@@ -4180,11 +4180,11 @@
         <v>10</v>
       </c>
       <c r="J35" s="5">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="K35" s="5">
         <f t="shared" si="3"/>
-        <v>240</v>
-      </c>
-      <c r="K35" s="5">
-        <f t="shared" si="4"/>
         <v>2823.9</v>
       </c>
       <c r="L35" s="5"/>
@@ -4252,22 +4252,22 @@
     </row>
     <row r="36" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="8">
+        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <v>47.85</v>
+      </c>
+      <c r="E36" s="5">
         <f t="shared" si="0"/>
-        <v>47.85</v>
-      </c>
-      <c r="E36" s="5">
-        <f t="shared" si="1"/>
         <v>2559.9749999999999</v>
       </c>
       <c r="F36" s="7">
@@ -4279,7 +4279,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="5">
@@ -4287,11 +4287,11 @@
         <v>10</v>
       </c>
       <c r="J36" s="5">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="K36" s="5">
         <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="K36" s="5">
-        <f t="shared" si="4"/>
         <v>2809.9749999999999</v>
       </c>
       <c r="L36" s="5"/>
@@ -4366,15 +4366,15 @@
         <v>31</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="8">
+        <f t="shared" si="10"/>
+        <v>47.85</v>
+      </c>
+      <c r="E37" s="5">
         <f t="shared" si="0"/>
-        <v>47.85</v>
-      </c>
-      <c r="E37" s="5">
-        <f t="shared" si="1"/>
         <v>2536.0500000000002</v>
       </c>
       <c r="F37" s="7">
@@ -4386,7 +4386,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="5">
@@ -4394,11 +4394,11 @@
         <v>10</v>
       </c>
       <c r="J37" s="5">
+        <f t="shared" si="2"/>
+        <v>260</v>
+      </c>
+      <c r="K37" s="5">
         <f t="shared" si="3"/>
-        <v>260</v>
-      </c>
-      <c r="K37" s="5">
-        <f t="shared" si="4"/>
         <v>2796.05</v>
       </c>
       <c r="L37" s="5"/>
@@ -4466,22 +4466,22 @@
     </row>
     <row r="38" spans="1:73" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="8">
+        <f t="shared" si="10"/>
+        <v>47.85</v>
+      </c>
+      <c r="E38" s="5">
         <f t="shared" si="0"/>
-        <v>47.85</v>
-      </c>
-      <c r="E38" s="5">
-        <f t="shared" si="1"/>
         <v>2512.125</v>
       </c>
       <c r="F38" s="7">
@@ -4493,7 +4493,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="5">
@@ -4501,11 +4501,11 @@
         <v>10</v>
       </c>
       <c r="J38" s="5">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="K38" s="5">
         <f t="shared" si="3"/>
-        <v>270</v>
-      </c>
-      <c r="K38" s="5">
-        <f t="shared" si="4"/>
         <v>2782.125</v>
       </c>
       <c r="L38" s="5"/>
@@ -4652,8 +4652,8 @@
         <v>44</v>
       </c>
       <c r="C40" s="9">
-        <f>SUM(K3:K38)</f>
-        <v>204606.44999999998</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>204606</v>
       </c>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>

--- a/LR3/table_1_87.xlsx
+++ b/LR3/table_1_87.xlsx
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5">
-        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6651.1500000000005</v>
       </c>
       <c r="L4" s="5"/>
@@ -946,7 +946,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" ref="D5:D36" si="6">D4</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>95.7</v>
       </c>
       <c r="E5" s="5">
@@ -4263,7 +4263,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" ref="D36:D38" si="10">D4/2</f>
+        <f>D3/2</f>
         <v>47.85</v>
       </c>
       <c r="E36" s="5">
@@ -4370,7 +4370,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>47.85</v>
       </c>
       <c r="E37" s="5">
@@ -4477,7 +4477,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="10"/>
+        <f>D3/2</f>
         <v>47.85</v>
       </c>
       <c r="E38" s="5">

--- a/LR3/table_1_87.xlsx
+++ b/LR3/table_1_87.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6E44B2-B616-46DB-B9A1-A39A9F5A1F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF46C1F-9881-4300-A79F-2A48777C7C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71828DA1-5C7C-4834-962B-F715EF2C64D9}"/>
   </bookViews>
@@ -248,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -266,23 +266,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB58AEA-18DD-44D0-99D0-836DF11FB806}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -667,41 +661,41 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>70</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <f>$A$1*1.1</f>
         <v>95.7</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="9">
         <f>D3*C3</f>
         <v>6699</v>
       </c>
-      <c r="F3" s="9">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="9">
+      <c r="F3" s="7">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="7">
         <v>44805</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="9">
         <f>IF(G3&lt;=F3,0,G3-F3)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="10">
-        <v>10</v>
-      </c>
-      <c r="J3" s="10">
+      <c r="I3" s="9">
+        <v>10</v>
+      </c>
+      <c r="J3" s="9">
         <f>I3*H3</f>
         <v>0</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3" s="9">
         <f>J3+E3</f>
         <v>6699</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -711,45 +705,45 @@
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="9">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <f>D3</f>
         <v>95.7</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="9">
         <f t="shared" ref="E4:E38" si="0">D4*C4</f>
         <v>6651.1500000000005</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <f>F3</f>
         <v>44813</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <f>G3+1</f>
         <v>44806</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="9">
         <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
         <v>0</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="9">
         <f>I3</f>
         <v>10</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="9">
         <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="12">
+      <c r="K4" s="9">
         <f t="shared" ref="K4:K38" si="3">J4+E4</f>
         <v>6651.1500000000005</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -759,45 +753,45 @@
       <c r="B5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="9">
         <f>C4-0.5</f>
         <v>69</v>
       </c>
-      <c r="D5" s="8">
-        <f t="shared" ref="D5:D35" si="5">D4</f>
-        <v>95.7</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="9">
+        <f t="shared" ref="D5:D33" si="5">D4</f>
+        <v>95.7</v>
+      </c>
+      <c r="E5" s="9">
         <f t="shared" si="0"/>
         <v>6603.3</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="12">
+      <c r="K5" s="9">
         <f t="shared" si="3"/>
         <v>6603.3</v>
       </c>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -807,45 +801,45 @@
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="9">
         <f t="shared" ref="C6:C38" si="9">C5-0.5</f>
         <v>68.5</v>
       </c>
-      <c r="D6" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E6" s="9">
         <f t="shared" si="0"/>
         <v>6555.45</v>
       </c>
-      <c r="F6" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G6" s="9">
+      <c r="F6" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="7">
         <f t="shared" si="7"/>
         <v>44808</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J6" s="10">
+      <c r="I6" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J6" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="9">
         <f t="shared" si="3"/>
         <v>6555.45</v>
       </c>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -855,45 +849,45 @@
       <c r="B7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="9">
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E7" s="9">
         <f t="shared" si="0"/>
         <v>6507.6</v>
       </c>
-      <c r="F7" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G7" s="9">
+      <c r="F7" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="7">
         <f t="shared" si="7"/>
         <v>44809</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J7" s="10">
+      <c r="I7" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J7" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="12">
+      <c r="K7" s="9">
         <f t="shared" si="3"/>
         <v>6507.6</v>
       </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -903,45 +897,45 @@
       <c r="B8" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="9">
         <f t="shared" si="9"/>
         <v>67.5</v>
       </c>
-      <c r="D8" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E8" s="9">
         <f t="shared" si="0"/>
         <v>6459.75</v>
       </c>
-      <c r="F8" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G8" s="9">
+      <c r="F8" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="7">
         <f t="shared" si="7"/>
         <v>44810</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J8" s="10">
+      <c r="I8" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J8" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="9">
         <f t="shared" si="3"/>
         <v>6459.75</v>
       </c>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -951,45 +945,45 @@
       <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="9">
         <f t="shared" si="9"/>
         <v>67</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="D9" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>6411.9000000000005</v>
       </c>
-      <c r="F9" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G9" s="9">
+      <c r="F9" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="7">
         <f t="shared" si="7"/>
         <v>44811</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J9" s="10">
+      <c r="I9" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J9" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="9">
         <f t="shared" si="3"/>
         <v>6411.9000000000005</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -999,45 +993,45 @@
       <c r="B10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="9">
         <f t="shared" si="9"/>
         <v>66.5</v>
       </c>
-      <c r="D10" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E10" s="9">
         <f t="shared" si="0"/>
         <v>6364.05</v>
       </c>
-      <c r="F10" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G10" s="9">
+      <c r="F10" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="7">
         <f t="shared" si="7"/>
         <v>44812</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J10" s="10">
+      <c r="I10" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="9">
         <f t="shared" si="3"/>
         <v>6364.05</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -1047,45 +1041,45 @@
       <c r="B11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="9">
         <f t="shared" si="9"/>
         <v>66</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E11" s="9">
         <f t="shared" si="0"/>
         <v>6316.2</v>
       </c>
-      <c r="F11" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G11" s="9">
-        <f t="shared" si="7"/>
-        <v>44813</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="F11" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="7">
+        <f t="shared" si="7"/>
+        <v>44813</v>
+      </c>
+      <c r="H11" s="9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J11" s="10">
+      <c r="I11" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J11" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="9">
         <f t="shared" si="3"/>
         <v>6316.2</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -1095,45 +1089,45 @@
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="9">
         <f t="shared" si="9"/>
         <v>65.5</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E12" s="12">
+      <c r="D12" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E12" s="9">
         <f t="shared" si="0"/>
         <v>6268.35</v>
       </c>
-      <c r="F12" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G12" s="9">
+      <c r="F12" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="7">
         <f t="shared" si="7"/>
         <v>44814</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I12" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J12" s="10">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="K12" s="12">
+      <c r="I12" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="9">
         <f t="shared" si="3"/>
         <v>6278.35</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -1143,45 +1137,45 @@
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="9">
         <f t="shared" si="9"/>
         <v>65</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E13" s="9">
         <f t="shared" si="0"/>
         <v>6220.5</v>
       </c>
-      <c r="F13" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="9">
+      <c r="F13" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="7">
         <f t="shared" si="7"/>
         <v>44815</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="I13" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="10">
+      <c r="I13" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J13" s="9">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="9">
         <f t="shared" si="3"/>
         <v>6240.5</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -1191,45 +1185,45 @@
       <c r="B14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="9">
         <f t="shared" si="9"/>
         <v>64.5</v>
       </c>
-      <c r="D14" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E14" s="9">
         <f t="shared" si="0"/>
         <v>6172.6500000000005</v>
       </c>
-      <c r="F14" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G14" s="9">
+      <c r="F14" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="7">
         <f t="shared" si="7"/>
         <v>44816</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I14" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J14" s="10">
+      <c r="I14" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J14" s="9">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K14" s="9">
         <f t="shared" si="3"/>
         <v>6202.6500000000005</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -1239,45 +1233,45 @@
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="9">
         <f t="shared" si="9"/>
         <v>64</v>
       </c>
-      <c r="D15" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E15" s="9">
         <f t="shared" si="0"/>
         <v>6124.8</v>
       </c>
-      <c r="F15" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="7">
         <f t="shared" si="7"/>
         <v>44817</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I15" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J15" s="10">
+      <c r="I15" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J15" s="9">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="9">
         <f t="shared" si="3"/>
         <v>6164.8</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -1287,45 +1281,45 @@
       <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="9">
         <f t="shared" si="9"/>
         <v>63.5</v>
       </c>
-      <c r="D16" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E16" s="9">
         <f t="shared" si="0"/>
         <v>6076.95</v>
       </c>
-      <c r="F16" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G16" s="9">
+      <c r="F16" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="7">
         <f t="shared" si="7"/>
         <v>44818</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="9">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I16" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J16" s="10">
+      <c r="I16" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J16" s="9">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="9">
         <f t="shared" si="3"/>
         <v>6126.95</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -1335,45 +1329,45 @@
       <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="9">
         <f t="shared" si="9"/>
         <v>63</v>
       </c>
-      <c r="D17" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E17" s="9">
         <f t="shared" si="0"/>
         <v>6029.1</v>
       </c>
-      <c r="F17" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="7">
         <f t="shared" si="7"/>
         <v>44819</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="9">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I17" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J17" s="10">
+      <c r="I17" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J17" s="9">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="9">
         <f t="shared" si="3"/>
         <v>6089.1</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -1383,45 +1377,45 @@
       <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="9">
         <f t="shared" si="9"/>
         <v>62.5</v>
       </c>
-      <c r="D18" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E18" s="9">
         <f t="shared" si="0"/>
         <v>5981.25</v>
       </c>
-      <c r="F18" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="F18" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="7">
         <f t="shared" si="7"/>
         <v>44820</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="9">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="I18" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J18" s="10">
+      <c r="I18" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J18" s="9">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="9">
         <f t="shared" si="3"/>
         <v>6051.25</v>
       </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -1431,45 +1425,45 @@
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="9">
         <f t="shared" si="9"/>
         <v>62</v>
       </c>
-      <c r="D19" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E19" s="9">
         <f t="shared" si="0"/>
         <v>5933.4000000000005</v>
       </c>
-      <c r="F19" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="7">
         <f t="shared" si="7"/>
         <v>44821</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="9">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="I19" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J19" s="10">
+      <c r="I19" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J19" s="9">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="K19" s="12">
+      <c r="K19" s="9">
         <f t="shared" si="3"/>
         <v>6013.4000000000005</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -1479,45 +1473,45 @@
       <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="9">
         <f t="shared" si="9"/>
         <v>61.5</v>
       </c>
-      <c r="D20" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E20" s="12">
+      <c r="D20" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E20" s="9">
         <f t="shared" si="0"/>
         <v>5885.55</v>
       </c>
-      <c r="F20" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G20" s="9">
+      <c r="F20" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="7">
         <f t="shared" si="7"/>
         <v>44822</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="9">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="I20" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J20" s="10">
+      <c r="I20" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J20" s="9">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="K20" s="12">
+      <c r="K20" s="9">
         <f t="shared" si="3"/>
         <v>5975.55</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -1527,45 +1521,45 @@
       <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="9">
         <f t="shared" si="9"/>
         <v>61</v>
       </c>
-      <c r="D21" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E21" s="12">
+      <c r="D21" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E21" s="9">
         <f t="shared" si="0"/>
         <v>5837.7</v>
       </c>
-      <c r="F21" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="F21" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="7">
         <f t="shared" si="7"/>
         <v>44823</v>
       </c>
-      <c r="H21" s="10">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="I21" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J21" s="10">
+      <c r="H21" s="9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="9">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="9">
         <f t="shared" si="3"/>
         <v>5937.7</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -1575,45 +1569,45 @@
       <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="9">
         <f t="shared" si="9"/>
         <v>60.5</v>
       </c>
-      <c r="D22" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E22" s="12">
+      <c r="D22" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E22" s="9">
         <f t="shared" si="0"/>
         <v>5789.85</v>
       </c>
-      <c r="F22" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G22" s="9">
+      <c r="F22" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="7">
         <f t="shared" si="7"/>
         <v>44824</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="9">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="I22" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J22" s="10">
+      <c r="I22" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J22" s="9">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="K22" s="12">
+      <c r="K22" s="9">
         <f t="shared" si="3"/>
         <v>5899.85</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -1623,45 +1617,45 @@
       <c r="B23" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="9">
         <f t="shared" si="9"/>
         <v>60</v>
       </c>
-      <c r="D23" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E23" s="12">
+      <c r="D23" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E23" s="9">
         <f t="shared" si="0"/>
         <v>5742</v>
       </c>
-      <c r="F23" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="F23" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="7">
         <f t="shared" si="7"/>
         <v>44825</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="I23" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J23" s="10">
+      <c r="I23" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J23" s="9">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="K23" s="12">
+      <c r="K23" s="9">
         <f t="shared" si="3"/>
         <v>5862</v>
       </c>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -1671,45 +1665,45 @@
       <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="9">
         <f t="shared" si="9"/>
         <v>59.5</v>
       </c>
-      <c r="D24" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E24" s="12">
+      <c r="D24" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E24" s="9">
         <f t="shared" si="0"/>
         <v>5694.1500000000005</v>
       </c>
-      <c r="F24" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G24" s="9">
+      <c r="F24" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="7">
         <f t="shared" si="7"/>
         <v>44826</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="9">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I24" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J24" s="10">
+      <c r="I24" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J24" s="9">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-      <c r="K24" s="12">
+      <c r="K24" s="9">
         <f t="shared" si="3"/>
         <v>5824.1500000000005</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -1719,45 +1713,45 @@
       <c r="B25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="9">
         <f t="shared" si="9"/>
         <v>59</v>
       </c>
-      <c r="D25" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E25" s="12">
+      <c r="D25" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E25" s="9">
         <f t="shared" si="0"/>
         <v>5646.3</v>
       </c>
-      <c r="F25" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="F25" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="7">
         <f t="shared" si="7"/>
         <v>44827</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="9">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="I25" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J25" s="10">
+      <c r="I25" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J25" s="9">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="9">
         <f t="shared" si="3"/>
         <v>5786.3</v>
       </c>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1767,45 +1761,45 @@
       <c r="B26" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="9">
         <f t="shared" si="9"/>
         <v>58.5</v>
       </c>
-      <c r="D26" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E26" s="12">
+      <c r="D26" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E26" s="9">
         <f t="shared" si="0"/>
         <v>5598.45</v>
       </c>
-      <c r="F26" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G26" s="9">
+      <c r="F26" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="7">
         <f t="shared" si="7"/>
         <v>44828</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="9">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="I26" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J26" s="10">
+      <c r="I26" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J26" s="9">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="K26" s="12">
+      <c r="K26" s="9">
         <f t="shared" si="3"/>
         <v>5748.45</v>
       </c>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -1815,45 +1809,45 @@
       <c r="B27" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="9">
         <f t="shared" si="9"/>
         <v>58</v>
       </c>
-      <c r="D27" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E27" s="12">
+      <c r="D27" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E27" s="9">
         <f t="shared" si="0"/>
         <v>5550.6</v>
       </c>
-      <c r="F27" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="F27" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="7">
         <f t="shared" si="7"/>
         <v>44829</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="9">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="I27" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J27" s="10">
+      <c r="I27" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J27" s="9">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="K27" s="12">
+      <c r="K27" s="9">
         <f t="shared" si="3"/>
         <v>5710.6</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1863,45 +1857,45 @@
       <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="9">
         <f t="shared" si="9"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E28" s="12">
+      <c r="D28" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E28" s="9">
         <f t="shared" si="0"/>
         <v>5502.75</v>
       </c>
-      <c r="F28" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G28" s="9">
+      <c r="F28" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="7">
         <f t="shared" si="7"/>
         <v>44830</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="9">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="I28" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J28" s="10">
+      <c r="I28" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J28" s="9">
         <f t="shared" si="2"/>
         <v>170</v>
       </c>
-      <c r="K28" s="12">
+      <c r="K28" s="9">
         <f t="shared" si="3"/>
         <v>5672.75</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -1911,45 +1905,45 @@
       <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="9">
         <f t="shared" si="9"/>
         <v>57</v>
       </c>
-      <c r="D29" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E29" s="12">
+      <c r="D29" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E29" s="9">
         <f t="shared" si="0"/>
         <v>5454.9000000000005</v>
       </c>
-      <c r="F29" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="F29" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="7">
         <f t="shared" si="7"/>
         <v>44831</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="9">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="I29" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J29" s="10">
+      <c r="I29" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="9">
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="K29" s="12">
+      <c r="K29" s="9">
         <f t="shared" si="3"/>
         <v>5634.9000000000005</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -1959,45 +1953,45 @@
       <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="9">
         <f t="shared" si="9"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E30" s="12">
+      <c r="D30" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E30" s="9">
         <f t="shared" si="0"/>
         <v>5407.05</v>
       </c>
-      <c r="F30" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G30" s="9">
+      <c r="F30" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="7"/>
         <v>44832</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="9">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="I30" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J30" s="10">
+      <c r="I30" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="9">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="K30" s="12">
+      <c r="K30" s="9">
         <f t="shared" si="3"/>
         <v>5597.05</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -2007,45 +2001,45 @@
       <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="9">
         <f t="shared" si="9"/>
         <v>56</v>
       </c>
-      <c r="D31" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E31" s="12">
+      <c r="D31" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E31" s="9">
         <f t="shared" si="0"/>
         <v>5359.2</v>
       </c>
-      <c r="F31" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="F31" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="7">
         <f t="shared" si="7"/>
         <v>44833</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="9">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="I31" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J31" s="10">
+      <c r="I31" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J31" s="9">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="K31" s="12">
+      <c r="K31" s="9">
         <f t="shared" si="3"/>
         <v>5559.2</v>
       </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -2055,45 +2049,45 @@
       <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="9">
         <f t="shared" si="9"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E32" s="12">
+      <c r="D32" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E32" s="9">
         <f t="shared" si="0"/>
         <v>5311.35</v>
       </c>
-      <c r="F32" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="F32" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="7">
         <f t="shared" si="7"/>
         <v>44834</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="9">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="I32" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J32" s="10">
+      <c r="I32" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="9">
         <f t="shared" si="2"/>
         <v>210</v>
       </c>
-      <c r="K32" s="12">
+      <c r="K32" s="9">
         <f t="shared" si="3"/>
         <v>5521.35</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -2103,45 +2097,45 @@
       <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="9">
         <f t="shared" si="9"/>
         <v>55</v>
       </c>
-      <c r="D33" s="8">
-        <f t="shared" si="5"/>
-        <v>95.7</v>
-      </c>
-      <c r="E33" s="12">
+      <c r="D33" s="9">
+        <f t="shared" si="5"/>
+        <v>95.7</v>
+      </c>
+      <c r="E33" s="9">
         <f t="shared" si="0"/>
         <v>5263.5</v>
       </c>
-      <c r="F33" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G33" s="9">
+      <c r="F33" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="7">
         <f t="shared" si="7"/>
         <v>44835</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="9">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="I33" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J33" s="10">
+      <c r="I33" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J33" s="9">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="K33" s="12">
+      <c r="K33" s="9">
         <f t="shared" si="3"/>
         <v>5483.5</v>
       </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -2151,45 +2145,45 @@
       <c r="B34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="9">
         <f t="shared" si="9"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34" s="9">
         <f>D33</f>
         <v>95.7</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="9">
         <f t="shared" si="0"/>
         <v>5215.6500000000005</v>
       </c>
-      <c r="F34" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G34" s="9">
+      <c r="F34" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="7">
         <f t="shared" si="7"/>
         <v>44836</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="9">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="I34" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J34" s="10">
+      <c r="I34" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J34" s="9">
         <f t="shared" si="2"/>
         <v>230</v>
       </c>
-      <c r="K34" s="12">
+      <c r="K34" s="9">
         <f t="shared" si="3"/>
         <v>5445.6500000000005</v>
       </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
@@ -2199,45 +2193,45 @@
       <c r="B35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="9">
         <f t="shared" si="9"/>
         <v>54</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="9">
         <f>D34/2</f>
         <v>47.85</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="9">
         <f t="shared" si="0"/>
         <v>2583.9</v>
       </c>
-      <c r="F35" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="F35" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="7">
         <f t="shared" si="7"/>
         <v>44837</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="9">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="I35" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J35" s="10">
+      <c r="I35" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J35" s="9">
         <f t="shared" si="2"/>
         <v>240</v>
       </c>
-      <c r="K35" s="12">
+      <c r="K35" s="9">
         <f t="shared" si="3"/>
         <v>2823.9</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -2247,45 +2241,45 @@
       <c r="B36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="9">
         <f t="shared" si="9"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36" s="9">
         <f>D34/2</f>
         <v>47.85</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="9">
         <f t="shared" si="0"/>
         <v>2559.9749999999999</v>
       </c>
-      <c r="F36" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G36" s="9">
+      <c r="F36" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="7">
         <f t="shared" si="7"/>
         <v>44838</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="I36" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J36" s="10">
+      <c r="I36" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J36" s="9">
         <f t="shared" si="2"/>
         <v>250</v>
       </c>
-      <c r="K36" s="12">
+      <c r="K36" s="9">
         <f t="shared" si="3"/>
         <v>2809.9749999999999</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -2295,45 +2289,45 @@
       <c r="B37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="9">
         <f t="shared" si="9"/>
         <v>53</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="9">
         <f>D34/2</f>
         <v>47.85</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="9">
         <f t="shared" si="0"/>
         <v>2536.0500000000002</v>
       </c>
-      <c r="F37" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G37" s="9">
+      <c r="F37" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="7">
         <f t="shared" si="7"/>
         <v>44839</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I37" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J37" s="10">
+      <c r="I37" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J37" s="9">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="9">
         <f t="shared" si="3"/>
         <v>2796.05</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -2343,51 +2337,51 @@
       <c r="B38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="9">
         <f t="shared" si="9"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="9">
         <f>D34/2</f>
         <v>47.85</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="9">
         <f t="shared" si="0"/>
         <v>2512.125</v>
       </c>
-      <c r="F38" s="9">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="9">
+      <c r="F38" s="7">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="7">
         <f t="shared" si="7"/>
         <v>44840</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="9">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="I38" s="10">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="10">
+      <c r="I38" s="9">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="J38" s="9">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="K38" s="12">
+      <c r="K38" s="9">
         <f t="shared" si="3"/>
         <v>2782.125</v>
       </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="10">
         <f>_xlfn.FLOOR.MATH(SUM(K3:K38))</f>
         <v>204606</v>
       </c>
@@ -2396,7 +2390,7 @@
       <c r="B41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="10">
         <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
@@ -2405,7 +2399,7 @@
       <c r="B42" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="10">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
@@ -2414,7 +2408,7 @@
       <c r="B43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="10">
         <f>MAX(K3:K38)</f>
         <v>6699</v>
       </c>
